--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Number</t>
   </si>
@@ -22,22 +22,46 @@
     <t>Question</t>
   </si>
   <si>
-    <t>Path</t>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Fundamentals</t>
   </si>
   <si>
     <t>The earth roundd</t>
   </si>
   <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>In the moon landing</t>
   </si>
   <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>In creationnnn</t>
   </si>
   <si>
+    <t>Business</t>
+  </si>
+  <si>
     <t>In one God</t>
   </si>
   <si>
+    <t>Economy</t>
+  </si>
+  <si>
     <t>Gender cannot be choosen</t>
+  </si>
+  <si>
+    <t>Current Affairs</t>
   </si>
   <si>
     <t>The unviverse is finite</t>
@@ -93,13 +117,27 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -109,8 +147,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -144,15 +188,18 @@
   <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -160,9 +207,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,15 +510,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="43.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="43.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="23.433571428571426" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -484,239 +529,305 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="C2" s="4">
-        <f>"q"&amp;A2&amp;"=forms.ChoiceField(label=data[1]["&amp;A2-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="C3" s="4">
-        <f>"q"&amp;A3&amp;"=forms.ChoiceField(label=data[1]["&amp;A3-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="4">
-        <f>"q"&amp;A4&amp;"=forms.ChoiceField(label=data[1]["&amp;A4-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
-        <f>"q"&amp;A5&amp;"=forms.ChoiceField(label=data[1]["&amp;A5-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
-      <c r="A6" s="1">
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
-        <f>"q"&amp;A6&amp;"=forms.ChoiceField(label=data[1]["&amp;A6-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
-      <c r="A7" s="1">
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4">
-        <f>"q"&amp;A7&amp;"=forms.ChoiceField(label=data[1]["&amp;A7-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4">
-        <f>"q"&amp;A8&amp;"=forms.ChoiceField(label=data[1]["&amp;A8-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4">
-        <f>"q"&amp;A9&amp;"=forms.ChoiceField(label=data[1]["&amp;A9-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="4">
-        <f>"q"&amp;A10&amp;"=forms.ChoiceField(label=data[1]["&amp;A10-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <f>"q"&amp;A11&amp;"=forms.ChoiceField(label=data[1]["&amp;A11-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
-      <c r="A12" s="1">
+      <c r="D19" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="4">
-        <f>"q"&amp;A12&amp;"=forms.ChoiceField(label=data[1]["&amp;A12-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4">
-        <f>"q"&amp;A13&amp;"=forms.ChoiceField(label=data[1]["&amp;A13-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="4">
-        <f>"q"&amp;A14&amp;"=forms.ChoiceField(label=data[1]["&amp;A14-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="4">
-        <f>"q"&amp;A15&amp;"=forms.ChoiceField(label=data[1]["&amp;A15-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4">
-        <f>"q"&amp;A16&amp;"=forms.ChoiceField(label=data[1]["&amp;A16-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="4">
-        <f>"q"&amp;A17&amp;"=forms.ChoiceField(label=data[1]["&amp;A17-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="4">
-        <f>"q"&amp;A18&amp;"=forms.ChoiceField(label=data[1]["&amp;A18-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="4">
-        <f>"q"&amp;A19&amp;"=forms.ChoiceField(label=data[1]["&amp;A19-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4">
-        <f>"q"&amp;A20&amp;"=forms.ChoiceField(label=data[1]["&amp;A20-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="4">
-        <f>"q"&amp;A21&amp;"=forms.ChoiceField(label=data[1]["&amp;A21-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="4">
-        <f>"q"&amp;A22&amp;"=forms.ChoiceField(label=data[1]["&amp;A22-1&amp;"],choices=FAVORITE_COLORS_CHOICES, required=True)"</f>
+      <c r="D22" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
